--- a/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
+++ b/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\ccs\CCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/ccs/ccp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6134759D-C76E-400C-8C70-93E8AFC83C7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77426578-3271-634B-8E29-82C24F470E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21045" yWindow="1410" windowWidth="33360" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -370,6 +370,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,25 +718,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="11">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,41 +747,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
@@ -786,7 +790,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -795,52 +799,52 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -860,17 +864,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -878,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -886,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -894,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -902,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -910,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -918,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -926,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -934,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -942,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -950,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -958,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -966,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -974,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -982,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -990,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1013,14 +1017,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>

--- a/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
+++ b/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/ccs/ccp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ccs/ccp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77426578-3271-634B-8E29-82C24F470E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887E65B-8E85-294F-81CA-C319405F6B3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
